--- a/VariantsEffect.xlsx
+++ b/VariantsEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Variant ID</t>
   </si>
@@ -28,15 +28,18 @@
     <t>Feature ID</t>
   </si>
   <si>
+    <t>Putative Impact</t>
+  </si>
+  <si>
+    <t>maf</t>
+  </si>
+  <si>
     <t>Feature Type</t>
   </si>
   <si>
     <t>Effect</t>
   </si>
   <si>
-    <t>Putative Impact</t>
-  </si>
-  <si>
     <t>HGVS.c</t>
   </si>
   <si>
@@ -52,82 +55,73 @@
     <t>chr9:g.140695360G&gt;A</t>
   </si>
   <si>
-    <t>chr1:g.152280670G&gt;T</t>
-  </si>
-  <si>
-    <t>chr3:g.97806944T&gt;C</t>
-  </si>
-  <si>
     <t>chr1:g.152280670G&gt;C</t>
   </si>
   <si>
     <t>chr19:g.43268067C&gt;T</t>
   </si>
   <si>
+    <t>chr11:g.118592881C&gt;T</t>
+  </si>
+  <si>
     <t>EHMT1</t>
   </si>
   <si>
     <t>FLG</t>
   </si>
   <si>
-    <t>OR5AC2</t>
-  </si>
-  <si>
     <t>PSG8</t>
   </si>
   <si>
+    <t>TREH-DDX6</t>
+  </si>
+  <si>
     <t>NM_024757.4</t>
   </si>
   <si>
     <t>NM_002016.1</t>
   </si>
   <si>
-    <t>NM_054106.1</t>
-  </si>
-  <si>
     <t>NM_182707.2</t>
   </si>
   <si>
     <t>NM_001130167.1</t>
   </si>
   <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>MODIFIER</t>
+  </si>
+  <si>
     <t>transcript</t>
   </si>
   <si>
+    <t>intergenic_region</t>
+  </si>
+  <si>
     <t>stop_gained</t>
   </si>
   <si>
-    <t>stop_lost&amp;splice_region_variant</t>
-  </si>
-  <si>
     <t>splice_donor_variant&amp;intron_variant</t>
   </si>
   <si>
-    <t>HIGH</t>
-  </si>
-  <si>
     <t>c.2636G&gt;A</t>
   </si>
   <si>
-    <t>c.6692C&gt;A</t>
-  </si>
-  <si>
-    <t>c.928T&gt;C</t>
-  </si>
-  <si>
     <t>c.6692C&gt;G</t>
   </si>
   <si>
     <t>c.430+1G&gt;A</t>
   </si>
   <si>
+    <t>n.118592881C&gt;T</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>2</t>
@@ -500,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,10 +534,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -555,30 +552,30 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -590,30 +587,33 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>8.236999999999999E-06</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -625,63 +625,69 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>0.0007413</v>
       </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>0.0007413</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -692,63 +698,19 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
